--- a/Tai lieu/Giai doan 4/Ban-Quan-Ao-Test-Case.xlsx
+++ b/Tai lieu/Giai doan 4/Ban-Quan-Ao-Test-Case.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="95">
   <si>
     <t>CASE</t>
   </si>
@@ -123,9 +123,6 @@
     <t>Lấy danh sách mặt hàng theo loại hoặc thông báo không có</t>
   </si>
   <si>
-    <t>50%, chưa thông báo nếu không có mặt hàng</t>
-  </si>
-  <si>
     <t>Quản lý giỏ hàng</t>
   </si>
   <si>
@@ -265,9 +262,6 @@
   </si>
   <si>
     <t>Hiển thị dữ liệu đã có lên màn hình</t>
-  </si>
-  <si>
-    <t>50%,  select chọn thương hiệu, chất liệu, loại, cách làm không hiển thị</t>
   </si>
   <si>
     <t>Mặt hàng đã tồn tại</t>
@@ -291,21 +285,7 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">50%, chưa chuyển về trang yêu cầu trước đó, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>fixed 80%</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">80%, chưa hiển thị số lượng có sẵn, </t>
+      <t xml:space="preserve">50%, không cho thêm vào giỏ hàng nhưng chưa thông báo, </t>
     </r>
     <r>
       <rPr>
@@ -319,7 +299,7 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">50%, không cho thêm vào giỏ hàng nhưng chưa thông báo, </t>
+      <t xml:space="preserve">50%, chưa thông báo, </t>
     </r>
     <r>
       <rPr>
@@ -333,7 +313,7 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">50%, chưa thông báo, </t>
+      <t xml:space="preserve">0%, đặt hàng có vấn đề, </t>
     </r>
     <r>
       <rPr>
@@ -347,7 +327,72 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">0%, đặt hàng có vấn đề, </t>
+      <t xml:space="preserve">50%, chưa chuyển về trang yêu cầu trước đó, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>fixed 80% chưa ổn lắm</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">50%, chưa thông báo nếu không có mặt hàng, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>fixed 99% UI đơn giản</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">80%, chưa hiển thị số lượng có sẵn, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>fixed 90% hết hàng thì chưa disabled nút thêm vào giỏ</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">0%, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>fixed 100%</t>
+    </r>
+  </si>
+  <si>
+    <t>Xem giỏ hàng</t>
+  </si>
+  <si>
+    <t>Bấm nút giỏ hàng</t>
+  </si>
+  <si>
+    <t>50%, chưa đăng nhập cũng load, xem được giỏ hàng</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">50%,  select chọn thương hiệu, chất liệu, loại, cách làm không hiển thị, </t>
     </r>
     <r>
       <rPr>
@@ -797,10 +842,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:F51"/>
+  <dimension ref="B2:F52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F32" sqref="F32"/>
+    <sheetView tabSelected="1" topLeftCell="A40" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H46" sqref="H46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -851,10 +896,10 @@
         <v>19</v>
       </c>
       <c r="F4" s="21" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="5" spans="2:6" ht="28" x14ac:dyDescent="0.35">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6" ht="42" x14ac:dyDescent="0.35">
       <c r="B5" s="20">
         <v>1.2</v>
       </c>
@@ -868,7 +913,7 @@
         <v>33</v>
       </c>
       <c r="F5" s="21" t="s">
-        <v>34</v>
+        <v>88</v>
       </c>
     </row>
     <row r="6" spans="2:6" x14ac:dyDescent="0.35">
@@ -911,7 +956,7 @@
         <v>11</v>
       </c>
       <c r="F8" s="25" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="9" spans="2:6" x14ac:dyDescent="0.35">
@@ -928,7 +973,7 @@
         <v>18</v>
       </c>
       <c r="F9" s="25" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="10" spans="2:6" x14ac:dyDescent="0.35">
@@ -962,7 +1007,7 @@
         <v>16</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="12" spans="2:6" x14ac:dyDescent="0.35">
@@ -1005,7 +1050,7 @@
         <v>11</v>
       </c>
       <c r="F14" s="25" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="15" spans="2:6" ht="28" x14ac:dyDescent="0.35">
@@ -1022,7 +1067,7 @@
         <v>18</v>
       </c>
       <c r="F15" s="25" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="16" spans="2:6" x14ac:dyDescent="0.35">
@@ -1079,25 +1124,25 @@
         <v>4</v>
       </c>
       <c r="C19" s="18" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D19" s="4"/>
       <c r="E19" s="4"/>
       <c r="F19" s="4"/>
     </row>
-    <row r="20" spans="2:6" ht="56" x14ac:dyDescent="0.35">
+    <row r="20" spans="2:6" ht="70" x14ac:dyDescent="0.35">
       <c r="B20" s="8">
         <v>4.0999999999999996</v>
       </c>
       <c r="C20" s="24" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D20" s="6"/>
       <c r="E20" s="24" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F20" s="6" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="21" spans="2:6" x14ac:dyDescent="0.35">
@@ -1122,7 +1167,7 @@
         <v>5</v>
       </c>
       <c r="C22" s="18" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D22" s="4"/>
       <c r="E22" s="4"/>
@@ -1133,16 +1178,16 @@
         <v>5.0999999999999996</v>
       </c>
       <c r="C23" s="24" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D23" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="E23" s="24" t="s">
         <v>40</v>
       </c>
-      <c r="E23" s="24" t="s">
-        <v>41</v>
-      </c>
       <c r="F23" s="6" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
     </row>
     <row r="24" spans="2:6" ht="28" x14ac:dyDescent="0.35">
@@ -1150,33 +1195,33 @@
         <v>5.2</v>
       </c>
       <c r="C24" s="24" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D24" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="E24" s="24" t="s">
         <v>42</v>
       </c>
-      <c r="E24" s="24" t="s">
-        <v>43</v>
-      </c>
       <c r="F24" s="6" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="25" spans="2:6" x14ac:dyDescent="0.35">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="25" spans="2:6" ht="42" x14ac:dyDescent="0.35">
       <c r="B25" s="8">
         <v>5.3</v>
       </c>
       <c r="C25" s="24" t="s">
-        <v>44</v>
-      </c>
-      <c r="D25" s="6" t="s">
-        <v>45</v>
+        <v>91</v>
+      </c>
+      <c r="D25" s="9" t="s">
+        <v>92</v>
       </c>
       <c r="E25" s="24" t="s">
-        <v>46</v>
-      </c>
-      <c r="F25" s="10">
-        <v>1</v>
+        <v>91</v>
+      </c>
+      <c r="F25" s="6" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="26" spans="2:6" x14ac:dyDescent="0.35">
@@ -1184,406 +1229,423 @@
         <v>5.4</v>
       </c>
       <c r="C26" s="24" t="s">
+        <v>43</v>
+      </c>
+      <c r="D26" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="E26" s="24" t="s">
+        <v>45</v>
+      </c>
+      <c r="F26" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B27" s="8">
+        <v>5.5</v>
+      </c>
+      <c r="C27" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="D26" s="6" t="s">
+      <c r="D27" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="E26" s="24" t="s">
+      <c r="E27" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="F26" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B27" s="17">
+      <c r="F27" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B28" s="17">
         <v>6</v>
       </c>
-      <c r="C27" s="18" t="s">
-        <v>47</v>
-      </c>
-      <c r="D27" s="4"/>
-      <c r="E27" s="4"/>
-      <c r="F27" s="4"/>
-    </row>
-    <row r="28" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B28" s="8">
-        <v>6.1</v>
-      </c>
-      <c r="C28" s="24" t="s">
-        <v>48</v>
-      </c>
-      <c r="D28" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E28" s="24" t="s">
-        <v>11</v>
-      </c>
-      <c r="F28" s="7">
-        <v>0</v>
-      </c>
+      <c r="C28" s="18" t="s">
+        <v>46</v>
+      </c>
+      <c r="D28" s="4"/>
+      <c r="E28" s="4"/>
+      <c r="F28" s="4"/>
     </row>
     <row r="29" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B29" s="8">
+        <v>6.1</v>
+      </c>
+      <c r="C29" s="24" t="s">
+        <v>47</v>
+      </c>
+      <c r="D29" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E29" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="F29" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B30" s="8">
         <v>6.2</v>
       </c>
-      <c r="C29" s="24" t="s">
+      <c r="C30" s="24" t="s">
+        <v>47</v>
+      </c>
+      <c r="D30" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="D29" s="6" t="s">
+      <c r="E30" s="24" t="s">
         <v>49</v>
       </c>
-      <c r="E29" s="24" t="s">
+      <c r="F30" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="2:6" ht="28" x14ac:dyDescent="0.35">
+      <c r="B31" s="8">
+        <v>6.3</v>
+      </c>
+      <c r="C31" s="24" t="s">
         <v>50</v>
       </c>
-      <c r="F29" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="2:6" ht="28" x14ac:dyDescent="0.35">
-      <c r="B30" s="8">
-        <v>6.3</v>
-      </c>
-      <c r="C30" s="24" t="s">
+      <c r="D31" s="6"/>
+      <c r="E31" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="F31" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="2:6" ht="56" x14ac:dyDescent="0.35">
+      <c r="B32" s="8">
+        <v>6.4</v>
+      </c>
+      <c r="C32" s="24" t="s">
         <v>51</v>
       </c>
-      <c r="D30" s="6"/>
-      <c r="E30" s="6" t="s">
+      <c r="D32" s="11"/>
+      <c r="E32" s="24" t="s">
+        <v>52</v>
+      </c>
+      <c r="F32" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="2:6" ht="28" x14ac:dyDescent="0.35">
+      <c r="B33" s="8">
+        <v>6.5</v>
+      </c>
+      <c r="C33" s="24" t="s">
         <v>54</v>
       </c>
-      <c r="F30" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="2:6" ht="56" x14ac:dyDescent="0.35">
-      <c r="B31" s="8">
-        <v>6.4</v>
-      </c>
-      <c r="C31" s="24" t="s">
-        <v>52</v>
-      </c>
-      <c r="D31" s="11"/>
-      <c r="E31" s="24" t="s">
-        <v>53</v>
-      </c>
-      <c r="F31" s="12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="2:6" ht="28" x14ac:dyDescent="0.35">
-      <c r="B32" s="8">
-        <v>6.5</v>
-      </c>
-      <c r="C32" s="24" t="s">
+      <c r="D33" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="D32" s="11" t="s">
+      <c r="E33" s="24" t="s">
         <v>56</v>
       </c>
-      <c r="E32" s="24" t="s">
+      <c r="F33" s="7" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="34" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B34" s="8">
+        <v>6.6</v>
+      </c>
+      <c r="C34" s="24" t="s">
+        <v>6</v>
+      </c>
+      <c r="D34" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="E34" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="F34" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B35" s="17">
+        <v>7</v>
+      </c>
+      <c r="C35" s="18" t="s">
         <v>57</v>
       </c>
-      <c r="F32" s="7" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="33" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B33" s="8">
-        <v>6.6</v>
-      </c>
-      <c r="C33" s="24" t="s">
+      <c r="D35" s="4"/>
+      <c r="E35" s="4"/>
+      <c r="F35" s="4"/>
+    </row>
+    <row r="36" spans="2:6" ht="42" x14ac:dyDescent="0.35">
+      <c r="B36" s="8">
+        <v>7.1</v>
+      </c>
+      <c r="C36" s="24" t="s">
+        <v>60</v>
+      </c>
+      <c r="D36" s="9"/>
+      <c r="E36" s="24" t="s">
+        <v>58</v>
+      </c>
+      <c r="F36" s="6" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="37" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B37" s="5">
+        <v>7.2</v>
+      </c>
+      <c r="C37" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="D33" s="13" t="s">
+      <c r="D37" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="E33" s="24" t="s">
+      <c r="E37" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="F33" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B34" s="17">
-        <v>7</v>
-      </c>
-      <c r="C34" s="18" t="s">
-        <v>58</v>
-      </c>
-      <c r="D34" s="4"/>
-      <c r="E34" s="4"/>
-      <c r="F34" s="4"/>
-    </row>
-    <row r="35" spans="2:6" ht="42" x14ac:dyDescent="0.35">
-      <c r="B35" s="8">
-        <v>7.1</v>
-      </c>
-      <c r="C35" s="24" t="s">
+      <c r="F37" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B38" s="17">
+        <v>8</v>
+      </c>
+      <c r="C38" s="18" t="s">
         <v>61</v>
       </c>
-      <c r="D35" s="9"/>
-      <c r="E35" s="24" t="s">
-        <v>59</v>
-      </c>
-      <c r="F35" s="6" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="36" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B36" s="5">
-        <v>7.2</v>
-      </c>
-      <c r="C36" s="24" t="s">
-        <v>6</v>
-      </c>
-      <c r="D36" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="E36" s="24" t="s">
-        <v>7</v>
-      </c>
-      <c r="F36" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B37" s="17">
-        <v>8</v>
-      </c>
-      <c r="C37" s="18" t="s">
+      <c r="D38" s="4"/>
+      <c r="E38" s="4"/>
+      <c r="F38" s="4"/>
+    </row>
+    <row r="39" spans="2:6" ht="28" x14ac:dyDescent="0.35">
+      <c r="B39" s="8">
+        <v>8.1</v>
+      </c>
+      <c r="C39" s="24" t="s">
         <v>62</v>
-      </c>
-      <c r="D37" s="4"/>
-      <c r="E37" s="4"/>
-      <c r="F37" s="4"/>
-    </row>
-    <row r="38" spans="2:6" ht="28" x14ac:dyDescent="0.35">
-      <c r="B38" s="8">
-        <v>8.1</v>
-      </c>
-      <c r="C38" s="24" t="s">
-        <v>63</v>
-      </c>
-      <c r="D38" s="11"/>
-      <c r="E38" s="24" t="s">
-        <v>38</v>
-      </c>
-      <c r="F38" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="39" spans="2:6" ht="42" x14ac:dyDescent="0.35">
-      <c r="B39" s="8">
-        <v>8.1999999999999993</v>
-      </c>
-      <c r="C39" s="24" t="s">
-        <v>64</v>
       </c>
       <c r="D39" s="11"/>
       <c r="E39" s="24" t="s">
+        <v>37</v>
+      </c>
+      <c r="F39" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="2:6" ht="42" x14ac:dyDescent="0.35">
+      <c r="B40" s="8">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="C40" s="24" t="s">
+        <v>63</v>
+      </c>
+      <c r="D40" s="11"/>
+      <c r="E40" s="24" t="s">
+        <v>64</v>
+      </c>
+      <c r="F40" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B41" s="8">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="C41" s="24" t="s">
+        <v>6</v>
+      </c>
+      <c r="D41" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="E41" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="F41" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B42" s="17">
+        <v>9</v>
+      </c>
+      <c r="C42" s="18" t="s">
         <v>65</v>
       </c>
-      <c r="F39" s="12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="40" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B40" s="8">
-        <v>8.3000000000000007</v>
-      </c>
-      <c r="C40" s="24" t="s">
-        <v>6</v>
-      </c>
-      <c r="D40" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="E40" s="24" t="s">
-        <v>7</v>
-      </c>
-      <c r="F40" s="12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="41" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B41" s="17">
-        <v>9</v>
-      </c>
-      <c r="C41" s="18" t="s">
-        <v>66</v>
-      </c>
-      <c r="D41" s="4"/>
-      <c r="E41" s="4"/>
-      <c r="F41" s="4"/>
-    </row>
-    <row r="42" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B42" s="5">
-        <v>9.1</v>
-      </c>
-      <c r="C42" s="24" t="s">
-        <v>67</v>
-      </c>
-      <c r="D42" s="14" t="s">
-        <v>68</v>
-      </c>
-      <c r="E42" s="24" t="s">
-        <v>11</v>
-      </c>
-      <c r="F42" s="15">
-        <v>1</v>
-      </c>
+      <c r="D42" s="4"/>
+      <c r="E42" s="4"/>
+      <c r="F42" s="4"/>
     </row>
     <row r="43" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B43" s="5">
+        <v>9.1</v>
+      </c>
+      <c r="C43" s="24" t="s">
+        <v>66</v>
+      </c>
+      <c r="D43" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="E43" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="F43" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B44" s="5">
         <v>9.1999999999999993</v>
       </c>
-      <c r="C43" s="24" t="s">
-        <v>67</v>
-      </c>
-      <c r="D43" s="14" t="s">
+      <c r="C44" s="24" t="s">
+        <v>66</v>
+      </c>
+      <c r="D44" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="E44" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="F44" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="2:6" ht="28" x14ac:dyDescent="0.35">
+      <c r="B45" s="5">
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="C45" s="24" t="s">
+        <v>66</v>
+      </c>
+      <c r="D45" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="E45" s="24" t="s">
         <v>69</v>
       </c>
-      <c r="E43" s="24" t="s">
-        <v>18</v>
-      </c>
-      <c r="F43" s="15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="44" spans="2:6" ht="28" x14ac:dyDescent="0.35">
-      <c r="B44" s="5">
-        <v>9.3000000000000007</v>
-      </c>
-      <c r="C44" s="24" t="s">
-        <v>67</v>
-      </c>
-      <c r="D44" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="E44" s="24" t="s">
+      <c r="F45" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="2:6" ht="28.5" x14ac:dyDescent="0.35">
+      <c r="B46" s="5">
+        <v>9.4</v>
+      </c>
+      <c r="C46" s="24" t="s">
         <v>70</v>
       </c>
-      <c r="F44" s="15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="45" spans="2:6" ht="28.5" x14ac:dyDescent="0.35">
-      <c r="B45" s="5">
-        <v>9.4</v>
-      </c>
-      <c r="C45" s="24" t="s">
+      <c r="D46" s="14" t="s">
         <v>71</v>
       </c>
-      <c r="D45" s="14" t="s">
+      <c r="E46" s="24" t="s">
         <v>72</v>
       </c>
-      <c r="E45" s="24" t="s">
+      <c r="F46" s="15" t="s">
         <v>73</v>
       </c>
-      <c r="F45" s="15" t="s">
+    </row>
+    <row r="47" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B47" s="5">
+        <v>9.5</v>
+      </c>
+      <c r="C47" s="24" t="s">
+        <v>70</v>
+      </c>
+      <c r="D47" s="14" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="46" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B46" s="5">
-        <v>9.5</v>
-      </c>
-      <c r="C46" s="24" t="s">
-        <v>71</v>
-      </c>
-      <c r="D46" s="14" t="s">
+      <c r="E47" s="24" t="s">
         <v>75</v>
       </c>
-      <c r="E46" s="24" t="s">
+      <c r="F47" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="2:6" ht="56.5" x14ac:dyDescent="0.35">
+      <c r="B48" s="5">
+        <v>9.6</v>
+      </c>
+      <c r="C48" s="24" t="s">
         <v>76</v>
       </c>
-      <c r="F46" s="15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="47" spans="2:6" ht="56.5" x14ac:dyDescent="0.35">
-      <c r="B47" s="5">
-        <v>9.6</v>
-      </c>
-      <c r="C47" s="24" t="s">
-        <v>77</v>
-      </c>
-      <c r="D47" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="E47" s="24" t="s">
+      <c r="D48" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="F47" s="15" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="48" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B48" s="5">
-        <v>9.6999999999999993</v>
-      </c>
-      <c r="C48" s="24" t="s">
-        <v>77</v>
-      </c>
-      <c r="D48" s="14" t="s">
-        <v>68</v>
-      </c>
       <c r="E48" s="24" t="s">
-        <v>11</v>
-      </c>
-      <c r="F48" s="15">
-        <v>1</v>
+        <v>80</v>
+      </c>
+      <c r="F48" s="15" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="49" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B49" s="5">
-        <v>9.8000000000000007</v>
+        <v>9.6999999999999993</v>
       </c>
       <c r="C49" s="24" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D49" s="14" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E49" s="24" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="F49" s="15">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="50" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B50" s="5">
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="C50" s="24" t="s">
+        <v>76</v>
+      </c>
+      <c r="D50" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="E50" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="F50" s="15" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="51" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B51" s="5">
         <v>9.9</v>
       </c>
-      <c r="C50" s="24" t="s">
+      <c r="C51" s="24" t="s">
+        <v>76</v>
+      </c>
+      <c r="D51" s="14" t="s">
         <v>77</v>
       </c>
-      <c r="D50" s="14" t="s">
+      <c r="E51" s="24" t="s">
         <v>78</v>
       </c>
-      <c r="E50" s="24" t="s">
+      <c r="F51" s="14" t="s">
         <v>79</v>
       </c>
-      <c r="F50" s="14" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="51" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B51" s="1">
+    </row>
+    <row r="52" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B52" s="1">
         <v>9.1</v>
       </c>
-      <c r="C51" s="2" t="s">
+      <c r="C52" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D51" s="2" t="s">
+      <c r="D52" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="E51" s="2" t="s">
+      <c r="E52" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="F51" s="3">
+      <c r="F52" s="3">
         <v>1</v>
       </c>
     </row>

--- a/Tai lieu/Giai doan 4/Ban-Quan-Ao-Test-Case.xlsx
+++ b/Tai lieu/Giai doan 4/Ban-Quan-Ao-Test-Case.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="94">
   <si>
     <t>CASE</t>
   </si>
@@ -238,9 +238,6 @@
   </si>
   <si>
     <t>Thông báo không thể xóa mặt hàng đã được lập hóa đơn</t>
-  </si>
-  <si>
-    <t>0%, chưa kiểm tra ràng buộc khóa ngoại</t>
   </si>
   <si>
     <t>Chưa được sử dụng</t>
@@ -844,19 +841,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:F52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H46" sqref="H46"/>
+    <sheetView tabSelected="1" topLeftCell="A37" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G46" sqref="G46"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="10.6328125" customWidth="1"/>
-    <col min="3" max="3" width="25.6328125" customWidth="1"/>
-    <col min="4" max="5" width="30.6328125" customWidth="1"/>
-    <col min="6" max="6" width="20.6328125" customWidth="1"/>
+    <col min="2" max="2" width="10.6640625" customWidth="1"/>
+    <col min="3" max="3" width="25.6640625" customWidth="1"/>
+    <col min="4" max="5" width="30.6640625" customWidth="1"/>
+    <col min="6" max="6" width="20.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B2" s="16" t="s">
         <v>0</v>
       </c>
@@ -873,7 +870,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B3" s="17">
         <v>1</v>
       </c>
@@ -884,7 +881,7 @@
       <c r="E3" s="19"/>
       <c r="F3" s="19"/>
     </row>
-    <row r="4" spans="2:6" ht="28" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:6" ht="27.6" x14ac:dyDescent="0.3">
       <c r="B4" s="20">
         <v>1.1000000000000001</v>
       </c>
@@ -896,10 +893,10 @@
         <v>19</v>
       </c>
       <c r="F4" s="21" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="5" spans="2:6" ht="42" x14ac:dyDescent="0.35">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6" ht="41.4" x14ac:dyDescent="0.3">
       <c r="B5" s="20">
         <v>1.2</v>
       </c>
@@ -913,10 +910,10 @@
         <v>33</v>
       </c>
       <c r="F5" s="21" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.35">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B6" s="20">
         <v>1.3</v>
       </c>
@@ -933,7 +930,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B7" s="17">
         <v>2</v>
       </c>
@@ -944,7 +941,7 @@
       <c r="E7" s="4"/>
       <c r="F7" s="4"/>
     </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B8" s="5">
         <v>2.1</v>
       </c>
@@ -956,10 +953,10 @@
         <v>11</v>
       </c>
       <c r="F8" s="25" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.35">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="9" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B9" s="5">
         <v>2.2000000000000002</v>
       </c>
@@ -973,10 +970,10 @@
         <v>18</v>
       </c>
       <c r="F9" s="25" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="10" spans="2:6" x14ac:dyDescent="0.35">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="10" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B10" s="5">
         <v>2.4</v>
       </c>
@@ -993,7 +990,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="2:6" ht="42" x14ac:dyDescent="0.35">
+    <row r="11" spans="2:6" ht="41.4" x14ac:dyDescent="0.3">
       <c r="B11" s="5">
         <v>2.5</v>
       </c>
@@ -1007,10 +1004,10 @@
         <v>16</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="12" spans="2:6" x14ac:dyDescent="0.35">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="12" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B12" s="5">
         <v>2.6</v>
       </c>
@@ -1027,7 +1024,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="13" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B13" s="17">
         <v>3</v>
       </c>
@@ -1038,7 +1035,7 @@
       <c r="E13" s="4"/>
       <c r="F13" s="4"/>
     </row>
-    <row r="14" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="14" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B14" s="5">
         <v>3.1</v>
       </c>
@@ -1050,10 +1047,10 @@
         <v>11</v>
       </c>
       <c r="F14" s="25" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="15" spans="2:6" ht="28" x14ac:dyDescent="0.35">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="15" spans="2:6" ht="27.6" x14ac:dyDescent="0.3">
       <c r="B15" s="5">
         <v>3.2</v>
       </c>
@@ -1067,10 +1064,10 @@
         <v>18</v>
       </c>
       <c r="F15" s="25" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="16" spans="2:6" x14ac:dyDescent="0.35">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="16" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B16" s="5">
         <v>3.3</v>
       </c>
@@ -1087,7 +1084,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="2:6" ht="28" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:6" ht="27.6" x14ac:dyDescent="0.3">
       <c r="B17" s="5">
         <v>3.4</v>
       </c>
@@ -1102,7 +1099,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B18" s="5">
         <v>3.5</v>
       </c>
@@ -1119,7 +1116,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B19" s="17">
         <v>4</v>
       </c>
@@ -1130,7 +1127,7 @@
       <c r="E19" s="4"/>
       <c r="F19" s="4"/>
     </row>
-    <row r="20" spans="2:6" ht="70" x14ac:dyDescent="0.35">
+    <row r="20" spans="2:6" ht="69" x14ac:dyDescent="0.3">
       <c r="B20" s="8">
         <v>4.0999999999999996</v>
       </c>
@@ -1142,10 +1139,10 @@
         <v>37</v>
       </c>
       <c r="F20" s="6" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="21" spans="2:6" x14ac:dyDescent="0.35">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="21" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B21" s="8">
         <v>4.2</v>
       </c>
@@ -1162,7 +1159,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="22" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B22" s="17">
         <v>5</v>
       </c>
@@ -1173,7 +1170,7 @@
       <c r="E22" s="4"/>
       <c r="F22" s="4"/>
     </row>
-    <row r="23" spans="2:6" ht="56" x14ac:dyDescent="0.35">
+    <row r="23" spans="2:6" ht="55.2" x14ac:dyDescent="0.3">
       <c r="B23" s="8">
         <v>5.0999999999999996</v>
       </c>
@@ -1187,10 +1184,10 @@
         <v>40</v>
       </c>
       <c r="F23" s="6" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="24" spans="2:6" ht="28" x14ac:dyDescent="0.35">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="24" spans="2:6" ht="27.6" x14ac:dyDescent="0.3">
       <c r="B24" s="8">
         <v>5.2</v>
       </c>
@@ -1204,27 +1201,27 @@
         <v>42</v>
       </c>
       <c r="F24" s="6" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="25" spans="2:6" ht="42" x14ac:dyDescent="0.35">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="25" spans="2:6" ht="41.4" x14ac:dyDescent="0.3">
       <c r="B25" s="8">
         <v>5.3</v>
       </c>
       <c r="C25" s="24" t="s">
+        <v>90</v>
+      </c>
+      <c r="D25" s="9" t="s">
         <v>91</v>
       </c>
-      <c r="D25" s="9" t="s">
+      <c r="E25" s="24" t="s">
+        <v>90</v>
+      </c>
+      <c r="F25" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="E25" s="24" t="s">
-        <v>91</v>
-      </c>
-      <c r="F25" s="6" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="26" spans="2:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="26" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B26" s="8">
         <v>5.4</v>
       </c>
@@ -1241,7 +1238,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="27" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B27" s="8">
         <v>5.5</v>
       </c>
@@ -1258,7 +1255,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="28" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B28" s="17">
         <v>6</v>
       </c>
@@ -1269,7 +1266,7 @@
       <c r="E28" s="4"/>
       <c r="F28" s="4"/>
     </row>
-    <row r="29" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="29" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B29" s="8">
         <v>6.1</v>
       </c>
@@ -1283,10 +1280,10 @@
         <v>11</v>
       </c>
       <c r="F29" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="2:6" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B30" s="8">
         <v>6.2</v>
       </c>
@@ -1303,7 +1300,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="2:6" ht="28" x14ac:dyDescent="0.35">
+    <row r="31" spans="2:6" ht="27.6" x14ac:dyDescent="0.3">
       <c r="B31" s="8">
         <v>6.3</v>
       </c>
@@ -1318,7 +1315,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="2:6" ht="56" x14ac:dyDescent="0.35">
+    <row r="32" spans="2:6" ht="55.2" x14ac:dyDescent="0.3">
       <c r="B32" s="8">
         <v>6.4</v>
       </c>
@@ -1333,7 +1330,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="2:6" ht="28" x14ac:dyDescent="0.35">
+    <row r="33" spans="2:6" ht="27.6" x14ac:dyDescent="0.3">
       <c r="B33" s="8">
         <v>6.5</v>
       </c>
@@ -1347,10 +1344,10 @@
         <v>56</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="34" spans="2:6" x14ac:dyDescent="0.35">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="34" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B34" s="8">
         <v>6.6</v>
       </c>
@@ -1367,7 +1364,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="35" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B35" s="17">
         <v>7</v>
       </c>
@@ -1378,7 +1375,7 @@
       <c r="E35" s="4"/>
       <c r="F35" s="4"/>
     </row>
-    <row r="36" spans="2:6" ht="42" x14ac:dyDescent="0.35">
+    <row r="36" spans="2:6" ht="41.4" x14ac:dyDescent="0.3">
       <c r="B36" s="8">
         <v>7.1</v>
       </c>
@@ -1393,7 +1390,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="37" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="37" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B37" s="5">
         <v>7.2</v>
       </c>
@@ -1410,7 +1407,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="38" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B38" s="17">
         <v>8</v>
       </c>
@@ -1421,7 +1418,7 @@
       <c r="E38" s="4"/>
       <c r="F38" s="4"/>
     </row>
-    <row r="39" spans="2:6" ht="28" x14ac:dyDescent="0.35">
+    <row r="39" spans="2:6" ht="27.6" x14ac:dyDescent="0.3">
       <c r="B39" s="8">
         <v>8.1</v>
       </c>
@@ -1436,7 +1433,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="2:6" ht="42" x14ac:dyDescent="0.35">
+    <row r="40" spans="2:6" ht="55.2" x14ac:dyDescent="0.3">
       <c r="B40" s="8">
         <v>8.1999999999999993</v>
       </c>
@@ -1451,7 +1448,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="41" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B41" s="8">
         <v>8.3000000000000007</v>
       </c>
@@ -1468,7 +1465,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="42" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B42" s="17">
         <v>9</v>
       </c>
@@ -1479,7 +1476,7 @@
       <c r="E42" s="4"/>
       <c r="F42" s="4"/>
     </row>
-    <row r="43" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="43" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B43" s="5">
         <v>9.1</v>
       </c>
@@ -1496,7 +1493,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="44" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B44" s="5">
         <v>9.1999999999999993</v>
       </c>
@@ -1513,7 +1510,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="2:6" ht="28" x14ac:dyDescent="0.35">
+    <row r="45" spans="2:6" ht="27.6" x14ac:dyDescent="0.3">
       <c r="B45" s="5">
         <v>9.3000000000000007</v>
       </c>
@@ -1530,7 +1527,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="2:6" ht="28.5" x14ac:dyDescent="0.35">
+    <row r="46" spans="2:6" ht="27.6" x14ac:dyDescent="0.3">
       <c r="B46" s="5">
         <v>9.4</v>
       </c>
@@ -1543,11 +1540,11 @@
       <c r="E46" s="24" t="s">
         <v>72</v>
       </c>
-      <c r="F46" s="15" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="47" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="F46" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B47" s="5">
         <v>9.5</v>
       </c>
@@ -1555,38 +1552,38 @@
         <v>70</v>
       </c>
       <c r="D47" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="E47" s="24" t="s">
         <v>74</v>
       </c>
-      <c r="E47" s="24" t="s">
-        <v>75</v>
-      </c>
       <c r="F47" s="15">
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="2:6" ht="56.5" x14ac:dyDescent="0.35">
+    <row r="48" spans="2:6" ht="55.8" x14ac:dyDescent="0.3">
       <c r="B48" s="5">
         <v>9.6</v>
       </c>
       <c r="C48" s="24" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D48" s="6" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E48" s="24" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F48" s="15" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="49" spans="2:6" x14ac:dyDescent="0.35">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="49" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B49" s="5">
         <v>9.6999999999999993</v>
       </c>
       <c r="C49" s="24" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D49" s="14" t="s">
         <v>67</v>
@@ -1598,12 +1595,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="50" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B50" s="5">
         <v>9.8000000000000007</v>
       </c>
       <c r="C50" s="24" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D50" s="14" t="s">
         <v>68</v>
@@ -1612,27 +1609,27 @@
         <v>18</v>
       </c>
       <c r="F50" s="15" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="51" spans="2:6" x14ac:dyDescent="0.35">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="51" spans="2:6" ht="28.2" x14ac:dyDescent="0.3">
       <c r="B51" s="5">
         <v>9.9</v>
       </c>
       <c r="C51" s="24" t="s">
+        <v>75</v>
+      </c>
+      <c r="D51" s="14" t="s">
         <v>76</v>
       </c>
-      <c r="D51" s="14" t="s">
+      <c r="E51" s="24" t="s">
         <v>77</v>
       </c>
-      <c r="E51" s="24" t="s">
+      <c r="F51" s="14" t="s">
         <v>78</v>
       </c>
-      <c r="F51" s="14" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="52" spans="2:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="52" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B52" s="1">
         <v>9.1</v>
       </c>

--- a/Tai lieu/Giai doan 4/Ban-Quan-Ao-Test-Case.xlsx
+++ b/Tai lieu/Giai doan 4/Ban-Quan-Ao-Test-Case.xlsx
@@ -198,9 +198,6 @@
     <t>Hiển thị danh sách các đơn hàng, không có thì hiển thị "không có"</t>
   </si>
   <si>
-    <t>50%, chưa hiển thị message nếu không có đơn hàng</t>
-  </si>
-  <si>
     <t>Hiển thị danh sách các đơn hàng: tên quần áo, số lượng, giá cả, trạng thái đơn hàng</t>
   </si>
   <si>
@@ -253,9 +250,6 @@
   </si>
   <si>
     <t>Cập nhật và thông báo thành công</t>
-  </si>
-  <si>
-    <t>50%, chưa có thông báo</t>
   </si>
   <si>
     <t>Hiển thị dữ liệu đã có lên màn hình</t>
@@ -352,20 +346,6 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">80%, chưa hiển thị số lượng có sẵn, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>fixed 90% hết hàng thì chưa disabled nút thêm vào giỏ</t>
-    </r>
-  </si>
-  <si>
-    <r>
       <t xml:space="preserve">0%, </t>
     </r>
     <r>
@@ -390,6 +370,48 @@
   <si>
     <r>
       <t xml:space="preserve">50%,  select chọn thương hiệu, chất liệu, loại, cách làm không hiển thị, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>fixed 100%</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">50%, chưa có thông báo, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>fixed 100%</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">80%, chưa hiển thị số lượng có sẵn, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>fixed 100%</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">50%, chưa hiển thị message nếu không có đơn hàng, </t>
     </r>
     <r>
       <rPr>
@@ -841,8 +863,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:F52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G46" sqref="G46"/>
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I34" sqref="I34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -893,7 +915,7 @@
         <v>19</v>
       </c>
       <c r="F4" s="21" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="5" spans="2:6" ht="41.4" x14ac:dyDescent="0.3">
@@ -910,7 +932,7 @@
         <v>33</v>
       </c>
       <c r="F5" s="21" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="6" spans="2:6" x14ac:dyDescent="0.3">
@@ -953,7 +975,7 @@
         <v>11</v>
       </c>
       <c r="F8" s="25" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="9" spans="2:6" x14ac:dyDescent="0.3">
@@ -970,7 +992,7 @@
         <v>18</v>
       </c>
       <c r="F9" s="25" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="10" spans="2:6" x14ac:dyDescent="0.3">
@@ -1004,7 +1026,7 @@
         <v>16</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="12" spans="2:6" x14ac:dyDescent="0.3">
@@ -1047,7 +1069,7 @@
         <v>11</v>
       </c>
       <c r="F14" s="25" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="15" spans="2:6" ht="27.6" x14ac:dyDescent="0.3">
@@ -1064,7 +1086,7 @@
         <v>18</v>
       </c>
       <c r="F15" s="25" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="16" spans="2:6" x14ac:dyDescent="0.3">
@@ -1127,7 +1149,7 @@
       <c r="E19" s="4"/>
       <c r="F19" s="4"/>
     </row>
-    <row r="20" spans="2:6" ht="69" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:6" ht="55.2" x14ac:dyDescent="0.3">
       <c r="B20" s="8">
         <v>4.0999999999999996</v>
       </c>
@@ -1139,7 +1161,7 @@
         <v>37</v>
       </c>
       <c r="F20" s="6" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
     </row>
     <row r="21" spans="2:6" x14ac:dyDescent="0.3">
@@ -1184,7 +1206,7 @@
         <v>40</v>
       </c>
       <c r="F23" s="6" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="24" spans="2:6" ht="27.6" x14ac:dyDescent="0.3">
@@ -1201,7 +1223,7 @@
         <v>42</v>
       </c>
       <c r="F24" s="6" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="25" spans="2:6" ht="41.4" x14ac:dyDescent="0.3">
@@ -1209,16 +1231,16 @@
         <v>5.3</v>
       </c>
       <c r="C25" s="24" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="D25" s="9" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="E25" s="24" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="F25" s="6" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
     </row>
     <row r="26" spans="2:6" x14ac:dyDescent="0.3">
@@ -1344,7 +1366,7 @@
         <v>56</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="34" spans="2:6" x14ac:dyDescent="0.3">
@@ -1380,14 +1402,14 @@
         <v>7.1</v>
       </c>
       <c r="C36" s="24" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D36" s="9"/>
       <c r="E36" s="24" t="s">
         <v>58</v>
       </c>
       <c r="F36" s="6" t="s">
-        <v>59</v>
+        <v>93</v>
       </c>
     </row>
     <row r="37" spans="2:6" x14ac:dyDescent="0.3">
@@ -1412,7 +1434,7 @@
         <v>8</v>
       </c>
       <c r="C38" s="18" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D38" s="4"/>
       <c r="E38" s="4"/>
@@ -1423,7 +1445,7 @@
         <v>8.1</v>
       </c>
       <c r="C39" s="24" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D39" s="11"/>
       <c r="E39" s="24" t="s">
@@ -1438,11 +1460,11 @@
         <v>8.1999999999999993</v>
       </c>
       <c r="C40" s="24" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D40" s="11"/>
       <c r="E40" s="24" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F40" s="12">
         <v>1</v>
@@ -1470,7 +1492,7 @@
         <v>9</v>
       </c>
       <c r="C42" s="18" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D42" s="4"/>
       <c r="E42" s="4"/>
@@ -1481,10 +1503,10 @@
         <v>9.1</v>
       </c>
       <c r="C43" s="24" t="s">
+        <v>65</v>
+      </c>
+      <c r="D43" s="14" t="s">
         <v>66</v>
-      </c>
-      <c r="D43" s="14" t="s">
-        <v>67</v>
       </c>
       <c r="E43" s="24" t="s">
         <v>11</v>
@@ -1498,10 +1520,10 @@
         <v>9.1999999999999993</v>
       </c>
       <c r="C44" s="24" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D44" s="14" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E44" s="24" t="s">
         <v>18</v>
@@ -1515,13 +1537,13 @@
         <v>9.3000000000000007</v>
       </c>
       <c r="C45" s="24" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D45" s="14" t="s">
         <v>28</v>
       </c>
       <c r="E45" s="24" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F45" s="15">
         <v>1</v>
@@ -1532,13 +1554,13 @@
         <v>9.4</v>
       </c>
       <c r="C46" s="24" t="s">
+        <v>69</v>
+      </c>
+      <c r="D46" s="14" t="s">
         <v>70</v>
       </c>
-      <c r="D46" s="14" t="s">
+      <c r="E46" s="24" t="s">
         <v>71</v>
-      </c>
-      <c r="E46" s="24" t="s">
-        <v>72</v>
       </c>
       <c r="F46" s="15">
         <v>1</v>
@@ -1549,13 +1571,13 @@
         <v>9.5</v>
       </c>
       <c r="C47" s="24" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D47" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="E47" s="24" t="s">
         <v>73</v>
-      </c>
-      <c r="E47" s="24" t="s">
-        <v>74</v>
       </c>
       <c r="F47" s="15">
         <v>1</v>
@@ -1566,16 +1588,16 @@
         <v>9.6</v>
       </c>
       <c r="C48" s="24" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D48" s="6" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="E48" s="24" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F48" s="15" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="49" spans="2:6" x14ac:dyDescent="0.3">
@@ -1583,10 +1605,10 @@
         <v>9.6999999999999993</v>
       </c>
       <c r="C49" s="24" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D49" s="14" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E49" s="24" t="s">
         <v>11</v>
@@ -1600,16 +1622,16 @@
         <v>9.8000000000000007</v>
       </c>
       <c r="C50" s="24" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D50" s="14" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E50" s="24" t="s">
         <v>18</v>
       </c>
       <c r="F50" s="15" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="51" spans="2:6" ht="28.2" x14ac:dyDescent="0.3">
@@ -1617,16 +1639,16 @@
         <v>9.9</v>
       </c>
       <c r="C51" s="24" t="s">
+        <v>74</v>
+      </c>
+      <c r="D51" s="14" t="s">
         <v>75</v>
       </c>
-      <c r="D51" s="14" t="s">
+      <c r="E51" s="24" t="s">
         <v>76</v>
       </c>
-      <c r="E51" s="24" t="s">
-        <v>77</v>
-      </c>
       <c r="F51" s="14" t="s">
-        <v>78</v>
+        <v>91</v>
       </c>
     </row>
     <row r="52" spans="2:6" x14ac:dyDescent="0.3">
